--- a/data/georgia_census/samegrelo/mestia/population_total.xlsx
+++ b/data/georgia_census/samegrelo/mestia/population_total.xlsx
@@ -1355,13 +1355,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC9B7A44-E449-4B43-8EB4-B8648681E3EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E97BD453-88CC-4DBF-8397-57571C8991A3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E325355D-9887-4511-8CA8-A590C351563B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEFD81E8-35C1-4B67-94DB-956589CFD26F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129E02B8-E892-4E6E-8AD3-1761B19B9D6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8832E957-3C2A-44C0-85CC-31A74D97C5D9}"/>
 </file>